--- a/Team-Data/2007-08/12-9-2007-08.xlsx
+++ b/Team-Data/2007-08/12-9-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -777,22 +844,22 @@
         <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR2" t="n">
         <v>12</v>
       </c>
-      <c r="AR2" t="n">
-        <v>13</v>
-      </c>
       <c r="AS2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>24</v>
@@ -801,22 +868,22 @@
         <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,19 +1017,19 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
@@ -1051,76 +1118,76 @@
         <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L4" t="n">
         <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>40.6</v>
       </c>
       <c r="U4" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="V4" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>13</v>
@@ -1138,49 +1205,49 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU4" t="n">
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-5.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1329,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1338,10 +1405,10 @@
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV5" t="n">
         <v>14</v>
@@ -1350,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1475,19 +1542,19 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1496,25 +1563,25 @@
         <v>24</v>
       </c>
       <c r="AL6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="n">
         <v>9</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>8</v>
       </c>
       <c r="AN6" t="n">
         <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
         <v>14</v>
@@ -1529,25 +1596,25 @@
         <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>28</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1684,28 +1751,28 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>1</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1848,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
         <v>18</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J9" t="n">
-        <v>80.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.471</v>
@@ -1967,34 +2034,34 @@
         <v>5.7</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.741</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="T9" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>6.6</v>
@@ -2006,19 +2073,19 @@
         <v>3.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2030,43 +2097,43 @@
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO9" t="n">
         <v>17</v>
       </c>
-      <c r="AK9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AP9" t="n">
         <v>20</v>
       </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
@@ -2084,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -2122,97 +2189,97 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="J10" t="n">
-        <v>90.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.356</v>
       </c>
       <c r="O10" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P10" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.715</v>
+        <v>0.712</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U10" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
         <v>22.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,43 +2297,43 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
         <v>25</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.524</v>
+        <v>0.55</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="J11" t="n">
-        <v>81.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
         <v>6.1</v>
@@ -2334,58 +2401,58 @@
         <v>19.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
         <v>14.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.2</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2394,13 +2461,13 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>19</v>
@@ -2409,10 +2476,10 @@
         <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2421,44 +2488,44 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
         <v>7</v>
       </c>
       <c r="AW11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX11" t="n">
         <v>14</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC11" t="n">
         <v>12</v>
       </c>
-      <c r="AY11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>13</v>
-      </c>
       <c r="BD11" t="n">
         <v>10</v>
       </c>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,28 +2661,28 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>23</v>
@@ -2624,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>30</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -2668,76 +2735,76 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="J13" t="n">
         <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="L13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M13" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="P13" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="R13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AB13" t="n">
         <v>94</v>
@@ -2746,19 +2813,19 @@
         <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2770,22 +2837,22 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="n">
         <v>21</v>
       </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2794,10 +2861,10 @@
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2806,7 +2873,7 @@
         <v>25</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -2850,67 +2917,67 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>81.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O14" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="P14" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>33.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>16.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>5.1</v>
@@ -2919,16 +2986,16 @@
         <v>22.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.2</v>
+        <v>106.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2940,7 +3007,7 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,13 +3025,13 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
         <v>8</v>
@@ -2973,34 +3040,34 @@
         <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB14" t="n">
         <v>5</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3170,7 +3237,7 @@
         <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.211</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J16" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.672</v>
+        <v>0.67</v>
       </c>
       <c r="R16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
@@ -3280,31 +3347,31 @@
         <v>3.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>92</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.9</v>
+        <v>-5.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
         <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3313,19 +3380,19 @@
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
@@ -3337,37 +3404,37 @@
         <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.5</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="M17" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="O17" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.733</v>
       </c>
       <c r="R17" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V17" t="n">
         <v>15.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y17" t="n">
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
         <v>-5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH17" t="n">
         <v>19</v>
       </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
       </c>
       <c r="AQ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT17" t="n">
         <v>19</v>
       </c>
-      <c r="AR17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>22</v>
-      </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>12</v>
       </c>
       <c r="AW17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY17" t="n">
         <v>25</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AZ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA17" t="n">
         <v>14</v>
       </c>
-      <c r="AY17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>13</v>
-      </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>20</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3719,7 +3786,7 @@
         <v>22</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3760,88 +3827,88 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.429</v>
+        <v>0.45</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="J19" t="n">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U19" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V19" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
         <v>24</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>90.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>14</v>
@@ -3871,43 +3938,43 @@
         <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.65</v>
       </c>
       <c r="H20" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I20" t="n">
         <v>36.3</v>
       </c>
       <c r="J20" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.785</v>
+        <v>0.8</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T20" t="n">
         <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4035,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>10</v>
@@ -4044,22 +4111,22 @@
         <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4071,22 +4138,22 @@
         <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
         <v>5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4220,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4232,10 +4299,10 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4244,13 +4311,13 @@
         <v>28</v>
       </c>
       <c r="AR21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4268,13 +4335,13 @@
         <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA21" t="n">
         <v>12</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>19</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>5</v>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>12</v>
@@ -4444,13 +4511,13 @@
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>-1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4578,10 +4645,10 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
@@ -4599,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
@@ -4614,22 +4681,22 @@
         <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>12</v>
@@ -4638,7 +4705,7 @@
         <v>24</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -4760,13 +4827,13 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>2</v>
@@ -4781,13 +4848,13 @@
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -4852,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H25" t="n">
-        <v>48.3</v>
+        <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M25" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.38</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>16.3</v>
+        <v>15.7</v>
       </c>
       <c r="P25" t="n">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.739</v>
+        <v>0.727</v>
       </c>
       <c r="R25" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T25" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.7</v>
+        <v>92.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH25" t="n">
         <v>19</v>
       </c>
-      <c r="AF25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17</v>
-      </c>
       <c r="AI25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>28</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>30</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG26" t="n">
         <v>22</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>2</v>
@@ -5142,13 +5209,13 @@
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5169,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
@@ -5184,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5306,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>6</v>
@@ -5318,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="AL27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
@@ -5330,7 +5397,7 @@
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5342,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5354,7 +5421,7 @@
         <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5398,106 +5465,106 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.238</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="L28" t="n">
         <v>4.7</v>
       </c>
       <c r="M28" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="N28" t="n">
         <v>0.355</v>
       </c>
       <c r="O28" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P28" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>45.9</v>
+        <v>45.4</v>
       </c>
       <c r="U28" t="n">
         <v>20</v>
       </c>
       <c r="V28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.1</v>
+        <v>-7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5506,16 +5573,16 @@
         <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>15</v>
@@ -5527,25 +5594,25 @@
         <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
       </c>
       <c r="AW28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY28" t="n">
         <v>19</v>
       </c>
-      <c r="AX28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>20</v>
-      </c>
       <c r="AZ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5580,112 +5647,112 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J29" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M29" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="O29" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P29" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.829</v>
+        <v>0.832</v>
       </c>
       <c r="R29" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
         <v>23.1</v>
       </c>
       <c r="V29" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>7</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
@@ -5852,13 +5919,13 @@
         <v>7</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>1</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
@@ -5882,10 +5949,10 @@
         <v>14</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>21</v>
@@ -5897,13 +5964,13 @@
         <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5912,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
         <v>4</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
@@ -5944,127 +6011,127 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L31" t="n">
         <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.336</v>
+        <v>0.345</v>
       </c>
       <c r="O31" t="n">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
       <c r="P31" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.789</v>
+        <v>0.778</v>
       </c>
       <c r="R31" t="n">
         <v>12.5</v>
       </c>
       <c r="S31" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS31" t="n">
         <v>13</v>
@@ -6073,25 +6140,25 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY31" t="n">
         <v>7</v>
       </c>
-      <c r="AY31" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-9-2007-08</t>
+          <t>2007-12-09</t>
         </is>
       </c>
     </row>
